--- a/Fase 2/Sprints/Sprint 6/Burndown Chart Sprint 6.xlsx
+++ b/Fase 2/Sprints/Sprint 6/Burndown Chart Sprint 6.xlsx
@@ -226,11 +226,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1677040694"/>
-        <c:axId val="65067382"/>
+        <c:axId val="1154312361"/>
+        <c:axId val="522377862"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1677040694"/>
+        <c:axId val="1154312361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -282,10 +282,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65067382"/>
+        <c:crossAx val="522377862"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65067382"/>
+        <c:axId val="522377862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1677040694"/>
+        <c:crossAx val="1154312361"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
